--- a/Formatting text.xlsx
+++ b/Formatting text.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\Sureskills\Readings\Excel_New Readings\M1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Proze\Desktop\MS-EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DE37190-B4F1-40AC-9318-09EBE85E3EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C861BE29-1CB1-4B3A-9F9F-5998665131CF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Financial Data" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Financial Data'!$A$1:$H$20</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,12 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
   </si>
   <si>
     <t>Office Type</t>
@@ -163,8 +159,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,16 +178,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -196,20 +227,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -521,76 +597,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64975D18-37F2-4F75-8B7B-50232CEAA42D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>135816</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>67388</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <f t="shared" ref="F2:F20" si="0">D2-E2</f>
         <v>68428</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>5700</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <f t="shared" ref="H2:H20" si="1">F2-G2</f>
         <v>62728</v>
       </c>
@@ -601,514 +678,514 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="3">
+        <v>207163</v>
+      </c>
+      <c r="E3" s="3">
+        <v>73705</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
+        <v>133458</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5599</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" si="1"/>
+        <v>127859</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>207163</v>
-      </c>
-      <c r="E3">
-        <v>73705</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>133458</v>
-      </c>
-      <c r="G3">
-        <v>5599</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="1"/>
-        <v>127859</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D4" s="3">
+        <v>432326</v>
+      </c>
+      <c r="E4" s="3">
+        <v>79297</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>353029</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4872</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="1"/>
+        <v>348157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>432326</v>
-      </c>
-      <c r="E4">
-        <v>79297</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>353029</v>
-      </c>
-      <c r="G4">
-        <v>4872</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
-        <v>348157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D5" s="3">
+        <v>376263</v>
+      </c>
+      <c r="E5" s="3">
+        <v>92698</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>283565</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5195</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="1"/>
+        <v>278370</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>376263</v>
-      </c>
-      <c r="E5">
-        <v>92698</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>283565</v>
-      </c>
-      <c r="G5">
-        <v>5195</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>278370</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D6" s="3">
+        <v>244975</v>
+      </c>
+      <c r="E6" s="3">
+        <v>100834</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>144141</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5153</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>138988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>244975</v>
-      </c>
-      <c r="E6">
-        <v>100834</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>144141</v>
-      </c>
-      <c r="G6">
-        <v>5153</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>138988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" s="3">
+        <v>201945</v>
+      </c>
+      <c r="E7" s="3">
+        <v>83178</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>118767</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4734</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>114033</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="D7">
-        <v>201945</v>
-      </c>
-      <c r="E7">
-        <v>83178</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>118767</v>
-      </c>
-      <c r="G7">
-        <v>4734</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>114033</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3">
+        <v>125319</v>
+      </c>
+      <c r="E8" s="3">
+        <v>65792</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>59527</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4667</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>54860</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>125319</v>
-      </c>
-      <c r="E8">
-        <v>65792</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>59527</v>
-      </c>
-      <c r="G8">
-        <v>4667</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>54860</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3">
+        <v>233255</v>
+      </c>
+      <c r="E9" s="3">
+        <v>83606</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>149649</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5089</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>144560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>233255</v>
-      </c>
-      <c r="E9">
-        <v>83606</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>149649</v>
-      </c>
-      <c r="G9">
-        <v>5089</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>144560</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3">
+        <v>331773</v>
+      </c>
+      <c r="E10" s="3">
+        <v>85288</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>246485</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5795</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>240690</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>331773</v>
-      </c>
-      <c r="E10">
-        <v>85288</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>246485</v>
-      </c>
-      <c r="G10">
-        <v>5795</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>240690</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3">
+        <v>407339</v>
+      </c>
+      <c r="E11" s="3">
+        <v>88286</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>319053</v>
+      </c>
+      <c r="G11" s="3">
+        <v>4604</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>314449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>407339</v>
-      </c>
-      <c r="E11">
-        <v>88286</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>319053</v>
-      </c>
-      <c r="G11">
-        <v>4604</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>314449</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>440462</v>
+      </c>
+      <c r="E12" s="3">
+        <v>81912</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>358550</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4842</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>353708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>440462</v>
-      </c>
-      <c r="E12">
-        <v>81912</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>358550</v>
-      </c>
-      <c r="G12">
-        <v>4842</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>353708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3">
+        <v>149134</v>
+      </c>
+      <c r="E13" s="3">
+        <v>87513</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>61621</v>
+      </c>
+      <c r="G13" s="3">
+        <v>5168</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>56453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>149134</v>
-      </c>
-      <c r="E13">
-        <v>87513</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>61621</v>
-      </c>
-      <c r="G13">
-        <v>5168</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>56453</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>244913</v>
+      </c>
+      <c r="E14" s="3">
+        <v>89974</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>154939</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5062</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="1"/>
+        <v>149877</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>244913</v>
-      </c>
-      <c r="E14">
-        <v>89974</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>154939</v>
-      </c>
-      <c r="G14">
-        <v>5062</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>149877</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
+        <v>137925</v>
+      </c>
+      <c r="E15" s="3">
+        <v>104528</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>33397</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5673</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="1"/>
+        <v>27724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>137925</v>
-      </c>
-      <c r="E15">
-        <v>104528</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>33397</v>
-      </c>
-      <c r="G15">
-        <v>5673</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>27724</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3">
+        <v>177789</v>
+      </c>
+      <c r="E16" s="3">
+        <v>103757</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>74032</v>
+      </c>
+      <c r="G16" s="3">
+        <v>5144</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="1"/>
+        <v>68888</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>177789</v>
-      </c>
-      <c r="E16">
-        <v>103757</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>74032</v>
-      </c>
-      <c r="G16">
-        <v>5144</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>68888</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3">
+        <v>433924</v>
+      </c>
+      <c r="E17" s="3">
+        <v>101465</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>332459</v>
+      </c>
+      <c r="G17" s="3">
+        <v>5068</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="1"/>
+        <v>327391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17">
-        <v>433924</v>
-      </c>
-      <c r="E17">
-        <v>101465</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>332459</v>
-      </c>
-      <c r="G17">
-        <v>5068</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>327391</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3">
+        <v>128691</v>
+      </c>
+      <c r="E18" s="3">
+        <v>67175</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>61516</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4956</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="1"/>
+        <v>56560</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>128691</v>
-      </c>
-      <c r="E18">
-        <v>67175</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>61516</v>
-      </c>
-      <c r="G18">
-        <v>4956</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>56560</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3">
+        <v>392518</v>
+      </c>
+      <c r="E19" s="3">
+        <v>82675</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>309843</v>
+      </c>
+      <c r="G19" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="1"/>
+        <v>303743</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19">
-        <v>392518</v>
-      </c>
-      <c r="E19">
-        <v>82675</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>309843</v>
-      </c>
-      <c r="G19">
-        <v>6100</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>303743</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3">
         <v>461214</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>86688</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <f t="shared" si="0"/>
         <v>374526</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>6066</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <f t="shared" si="1"/>
         <v>368460</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H20" xr:uid="{87CCFA87-7694-400F-B268-1295D353E16D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H20">
+  <autoFilter ref="A1:H20"/>
+  <sortState ref="A2:H20">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1117,45 +1194,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1956E5B1-36AD-4DAF-A6B1-7F564C7935A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="3">
+        <v>276986.5263157895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B2">
-        <v>276986.5263157895</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" s="3">
+        <v>461214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B3">
-        <v>461214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>125319</v>
       </c>
     </row>
